--- a/biology/Botanique/Orientation_bibliographique_en_botanique,_phycologie_et_mycologie_(taxinomie)/Orientation_bibliographique_en_botanique,_phycologie_et_mycologie_(taxinomie).xlsx
+++ b/biology/Botanique/Orientation_bibliographique_en_botanique,_phycologie_et_mycologie_(taxinomie)/Orientation_bibliographique_en_botanique,_phycologie_et_mycologie_(taxinomie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -511,7 +523,9 @@
           <t>Introduction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page présente une liste de références relatives à la botanique, à la phycologie et à la mycologie, d'ouvrages, de publications ou de sites internet reconnus par la communauté scientifique comme incontournables ou majeurs, qu'ils soient généraux ou plus ciblés. Pour les sujets comportant une liste de références trop importante, se reporter aux éventuelles sous-pages plus spécialisées via les liens proposés. Pour chaque discipline elle présente les grandes lignes historiques de la littérature et cite les auteurs ayant le plus de notoriété.
 Les espèces fossiles ne sont pas représentées ici. Pour des références se rapportant aux groupes disparus, consulter la page Orientation bibliographique sur l'origine et l'évolution du vivant.
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
